--- a/biology/Histoire de la zoologie et de la botanique/Daryl_Paul_Domning/Daryl_Paul_Domning.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Daryl_Paul_Domning/Daryl_Paul_Domning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daryl Paul Domning (14 mars 1947, Biloxi -) est un paléontologue et professeur d'anatomie de l'université Howard[1] de Washington et auteur ou coauteur de nombreux livres sur les siréniens. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daryl Paul Domning (14 mars 1947, Biloxi -) est un paléontologue et professeur d'anatomie de l'université Howard de Washington et auteur ou coauteur de nombreux livres sur les siréniens. 
 Il obtient son doctorat en 1975 à l'université de Berkeley. Ses principales recherches concernent les siréniens, dont il est reconnu comme un des spécialistes dans le monde.[réf. nécessaire]
 Il est paroissien de St Camillus Catholic Church, Silver Spring et membre du RICA (Rite of Christian Initiation of Adults). Il est l'auteur avec le théologiste Monika K. Hellwig de l'ouvrage Original Sin and Evil in the light of Evolution (Ashgate, 2006).
 </t>
